--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200303.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200303.xlsx
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9491" uniqueCount="3297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9506" uniqueCount="3299">
   <si>
     <t>序号</t>
   </si>
@@ -10295,6 +10295,14 @@
   </si>
   <si>
     <t>http://wsjkw.gd.gov.cn/xxgzbdfk/yqtb/content/post_2913884.html</t>
+  </si>
+  <si>
+    <t>境外输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10733,10 +10741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10935,7 +10943,7 @@
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="16">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16">
@@ -12256,10 +12264,13 @@
         <v>42</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="12">
-        <v>11</v>
+        <v>3297</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>3298</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1</v>
       </c>
       <c r="S22" s="12" t="s">
         <v>44</v>
@@ -12319,8 +12330,8 @@
       <c r="G23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="12">
-        <v>20</v>
+      <c r="K23" s="12">
+        <v>11</v>
       </c>
       <c r="S23" s="12" t="s">
         <v>44</v>
@@ -12363,7 +12374,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17">
         <v>43893</v>
@@ -12377,19 +12388,11 @@
       <c r="F24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="12">
-        <v>48</v>
-      </c>
-      <c r="M24" s="12">
-        <f>SUM(M2:M23)</f>
-        <v>1350</v>
+      <c r="G24" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="O24" s="12">
-        <f>SUM(O2:O23)</f>
-        <v>1129</v>
-      </c>
-      <c r="P24" s="12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S24" s="12" t="s">
         <v>44</v>
@@ -12428,47 +12431,122 @@
       <c r="AI24" s="13"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="17">
+        <v>43893</v>
+      </c>
+      <c r="D25" s="17">
+        <v>43894</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="12">
+        <v>48</v>
+      </c>
+      <c r="M25" s="12">
+        <f>SUM(M2:M24)</f>
+        <v>1350</v>
+      </c>
+      <c r="O25" s="12">
+        <f>SUM(O2:O24)</f>
+        <v>1129</v>
+      </c>
+      <c r="P25" s="12">
+        <v>7</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" s="13">
+        <v>43894.375</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>3296</v>
+      </c>
       <c r="W25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AD25" s="13"/>
+      <c r="Z25" s="13">
+        <v>43894.402777777781</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>43894.430555555555</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="AI25" s="13"/>
     </row>
     <row r="26" spans="1:36">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="S26" s="12" t="s">
+        <v>3297</v>
+      </c>
       <c r="W26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AD26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
     <row r="27" spans="1:36">
+      <c r="S27" s="12" t="s">
+        <v>3298</v>
+      </c>
       <c r="W27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AD27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
+    <row r="28" spans="1:36">
+      <c r="W28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AI28" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P22:R1048576 O24:O1048576 I22:N1048576 I2:R21">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P22:R1048576 O25:O1048576 I22:N1048576 I2:R21">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21 H23:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21 G23:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
   </dataValidations>
